--- a/assets/disciplinas/LOM3015.xlsx
+++ b/assets/disciplinas/LOM3015.xlsx
@@ -137,7 +137,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3015.xlsx
+++ b/assets/disciplinas/LOM3015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>O objetivo desta disciplina é apresentar ao aluno fundamentos de Físico-Química, mais especificamente Termodinâmica Química, com foco em problemas encontrados na Engenharia de Materiais. Bastante ênfase é dada nos assuntos relativos a Termoquímica e Equilíbrio Química, abordando equilíbrio com fases condensadas.</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1) 1a Lei da Termodinâmica2) 2a e 3a Leis da Termodinâmica3) Relações entre Propriedades Termodinâmicas4) Equilíbrio5) Equilíbrio Químico6) Soluções</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1- 1a Lei da Termodinâmica: sistema e vizinhança; transferência de energia; energia de um sistema; energia como uma função de estado; trabalho; sistema fechado; propriedades extensivas e intensivas; sistema aberto; entalpia; estado estacionário; capacidade térmica a volume constante; capacidade térmica a volume constante; equação de estado, gases não-ideais; expansão e compressão adiabática; entalpias de formação; variação de entalpia em reações químicas; variação de temperatura associadas à reações químicas em sistemas adiabáticos.2- 2a e 3a Leis da Termodinâmica: Entropia como função de estado; variações de entropia associadas à variações de temperatura e pressão; variações de entropia em reações químicas; terceiro princípio da termodinâmica.3- Relações entre Propriedades Termodinâmicas: As funções A e G; potencial químico; grandezas parciais molares; relações entre propriedades derivadas de U, H, A e G; gás ideal; entropia de mistura; capacidade térmica; variação de capacidade térmica; Relação P-T isoentrópica; compressão isoentrópica de sólidos.4- Equilíbrio: Condições de equilíbrio; equilíbrio de fases; variação de pressão de equilíbrio com a temperatura; equação de Clapeyron; variação da pressão de vapor de uma fase condensada com a pressão total aplicada; variação da pressão de vapor com tamanho de partícula.5- Equilíbrio Químico: atividade; equilíbrio químico; equilíbrio em fase gasosa; equilíbrio sólido-vapor; fontes de informação em DGo; diagrama de Ellingham; variação da constante de equilíbrio com a temperatura; gases dissolvidos em metais (Lei de Sievert); equilíbrio químico e temperatura adiabática de chama.6- Soluções: grandezas parciais molares relativas; entropia de mistura - solução ideal; entalpia de mistura  solução ideal; Soluções não-ideais; relação de Gibbs-Duhem; soluções regulares.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>O curso será ministrado na forma de aulas expositivas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão:NF=(P1+2*P2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para os alunos que obtiverem 3,0≤NF&lt;5,0, será aplicada uma avaliação de recuperação (R), com pontuação de 0 a 10, que levará ao cálculo da média final (MF) através da seguinte expressão:MF=(NF+R)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>REFERÊNCIAS BIBLIOGRÁFICAS1) Castellan, G., Fundamentos de Físico-Química, vol.1, Livros Técnicos e Científicos Editora S.A., 1986.2) Atkins, P.W., Physical Chemistry, Oxford University Press, 1994.3) Pilla, L., Físico Química, vol.1, Livros Técnicos e Científicos Editora S.A., 1979.4) Moore, W.J., Físico Química, vol.1, Editora Edgard Blücher Ltda, 1976.5) Darken, L. &amp; Gurry, R., Physical Chemistry f Metals, McGraw-Hill Book Company Inc., 1953.6) Johnson, D.L. &amp; Stracher, G.B., Thermodynamic - Loop Applications in Materials Systems, vols.1 e 2, The Minerals, Metals &amp; Materials Society, 1995.7) Ragone, D.V., Thermodynamics of Materials, vol.1, John Wiley &amp; Sons Inc., 1995. (Livro Texto)8) Swalin, R.A. Thermodynamics of Solids, John Wiley &amp; Sons, 1972.9) Shoemaker, D.P., Garland, C.W., Nibler, J.W., Experiments in Physical Chemistry, McGraw-Hill Book Company, 1989.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -683,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -694,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3015.xlsx
+++ b/assets/disciplinas/LOM3015.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-4</t>
+    <t>EF-4,EM-4</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -125,7 +125,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito fraco)
+    <t xml:space="preserve">LOQ4100 -  Fundamentos de Química para Engenharia I (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3015.xlsx
+++ b/assets/disciplinas/LOM3015.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2011</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -103,7 +103,7 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>O curso será ministrado na forma de aulas expositivas.</t>
+    <t>Esta é uma disciplina fundamental, exigindo dedicação individual para assimilação de definições e conceitos. Isto envolve leitura concentrada e realização de exercícios numéricos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
@@ -115,7 +115,7 @@
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para os alunos que obtiverem 3,0≤NF&lt;5,0, será aplicada uma avaliação de recuperação (R), com pontuação de 0 a 10, que levará ao cálculo da média final (MF) através da seguinte expressão:MF=(NF+R)/2</t>
+    <t>Para a recuperação será realizada uma prova escrita (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Requisitos:</t>

--- a/assets/disciplinas/LOM3015.xlsx
+++ b/assets/disciplinas/LOM3015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Esta disciplina visa apresentar fundamentos de termodinâmica aplicada à área de ciência e engenharia de materiais. Especial ênfase é dada à energia na forma e calor para aquecimento de sistemas termodinâmicos; cálculos de variação de entalpia; entropia e energia de Gibbs de elementos e compostos em mudanças de estado; cálculos de variação de entalpia; entropia e energia de Gibbs de reação; aplicação da propriedade  energia de Gibbs para avaliação de transformações espontâneas e em equilíbrio; fundamentos de termodinâmica de soluções; cálculos de condições de equilíbrio em sistemas heterogêneos. Apresenta-se também as principais diferenças entre esta disciplina e a disciplina de Termodinâmica de Máquinas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1) Introdução; 2) 1a Lei da Termodinâmica 3) 2a e 3a Leis da Termodinâmica 4) Equilíbrio heterogêneo: composição variável da fase gasosa; 5) Equilíbrio heterogêneo: composição variável da fase condensada;</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- Introdução: sistema; vizinhanças; fases; equilíbrio; fronteiras adiabáticas e diatérmicas; processos reversíveis e irreversíveis; estado termodinâmico; mudança de estado; processos cíclicos; equação de estado; calor; trabalho.2- A 1ª lei de Termodinâmica: energia interna; capacidades térmicas; entalpia; entalpia de transformação de fases; entalpia de formação e de reação; entalpia de reação em função da temperatura (introdução ao loop termodinâmico).3- A 2ª e 3ª leis da Termodinâmica: Dispersão de energia e entropia; entropia no zero absoluto; entropia de reação; entropia de reação em função da temperatura; desigualdade de Clausius; critérios de espontaneidade e equilíbrio; energia de Gibbs; energia de Helmholtz; energia de Gibbs de reação em função da temperatura; equação de Gibbs-Helmholtz.4- Equilíbrio heterogêneo: composição variável da fase gasosa: mistura de gases ideais; lei de Dalton; energia de Gibbs de um gás ideal; pressão de equilíbrio em sistemas metal-óxido-O2(g).5- Equilíbrio heterogêneo: composição variável da fase condensada: fugacidade; atividade termodinâmica; soluções e grandezas parciais molares; potencial químico; modelos de soluções; propriedades termodinâmicas de excesso</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>Esta é uma disciplina fundamental, exigindo dedicação individual para assimilação de definições e conceitos. Isto envolve leitura concentrada e realização de exercícios numéricos.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Esta é uma disciplina fundamental, exigindo dedicação individual para assimilação de definições e conceitos. Isto envolve leitura concentrada e realização de exercícios numéricos.</t>
+    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão:NF=(P1+2*P2)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão:NF=(P1+2*P2)/3</t>
+    <t>Para a recuperação será realizada uma prova escrita (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova escrita (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>1) Johnson, D.L. &amp; Stracher, G.B., Thermodynamic - Loop Applications in Materials Systems, vols.1 e 2, The Minerals, Metals &amp; Materials Society, 1995. ISBN 0-87339-270-1.2) P. Atkins &amp; J. de Paula. Físico-Química, Livros Técnicos e Científicos Editora S.A., 2008. ISBN 978-85-216-1600-9.3) S.Stolen, T.Grande. Chemical Thermodynamics of Materials, John Wiley &amp; Sons, Ltd. 2005. ISBN 978-0-471-49230-6.4) R. DeHoff. Thermodynamics in Materials Science. Taylor &amp; Francis Group, 2006. ISBN 978-0-8493-4065-9.5) Y.A. Chang &amp; W.A. Oates. Materials Thermodynamics, John Wiley &amp; Sons, 2010. ISBN 978-0-470-48414-2.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,62 +619,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -677,7 +683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -688,25 +694,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
